--- a/examples/campaigns/coral-reef-light/coral-reef.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="1" state="visible" r:id="rId2"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="248">
   <si>
     <t xml:space="preserve">Sound Scape Explorer</t>
   </si>
@@ -565,7 +565,13 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/bamdad/git/sound-scape-explorer/sample-lana/audio</t>
+    <t xml:space="preserve">storage_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coral-reef.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio</t>
   </si>
   <si>
     <t xml:space="preserve">http://localhost:5531</t>
@@ -1471,7 +1477,7 @@
   </sheetPr>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1892,22 +1898,22 @@
         <v>64</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B2" s="23" t="n">
         <v>15</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>15</v>
@@ -1991,10 +1997,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>56</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B2" s="27" t="n">
         <v>44881.5</v>
@@ -2011,18 +2017,18 @@
         <v>44882.5034722222</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>44887.5</v>
@@ -2031,18 +2037,18 @@
         <v>44888.5034722222</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" s="27" t="n">
         <v>44907.5</v>
@@ -2051,13 +2057,13 @@
         <v>44908.5034722222</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,82 +2115,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2223,74 +2229,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,12 +2342,12 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2380,17 +2386,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2433,22 +2439,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2468,9 +2474,9 @@
     <tabColor rgb="FFFFFFD7"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2495,69 +2501,77 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>83</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15" t="n">
-        <v>44100</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B6" s="17" t="n">
         <v>44197</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="19" t="n">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="19" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B10" s="19" t="n">
         <v>42000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://localhost:5531"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost:5531"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2578,11 +2592,11 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2607,66 +2621,66 @@
         <v>26</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="27" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="23" t="n">
         <v>2022</v>
@@ -2681,22 +2695,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O2" s="24" t="n">
         <v>465</v>
@@ -2711,21 +2725,21 @@
         <v>58</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="27" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="23" t="n">
         <v>2022</v>
@@ -2740,22 +2754,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O3" s="24" t="n">
         <v>465</v>
@@ -2770,21 +2784,21 @@
         <v>58</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="27" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="23" t="n">
         <v>2022</v>
@@ -2799,22 +2813,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O4" s="24" t="n">
         <v>465</v>
@@ -2829,21 +2843,21 @@
         <v>58</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="28" t="n">
         <v>44887.5</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" s="23" t="n">
         <v>2022</v>
@@ -2858,22 +2872,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" s="24" t="n">
         <v>465</v>
@@ -2888,21 +2902,21 @@
         <v>58</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="28" t="n">
         <v>44887.5069444444</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" s="23" t="n">
         <v>2022</v>
@@ -2917,22 +2931,22 @@
         <v>5</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O6" s="24" t="n">
         <v>465</v>
@@ -2947,21 +2961,21 @@
         <v>58</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="28" t="n">
         <v>44887.5138888889</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="23" t="n">
         <v>2022</v>
@@ -2976,22 +2990,22 @@
         <v>5</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O7" s="24" t="n">
         <v>465</v>
@@ -3006,21 +3020,21 @@
         <v>58</v>
       </c>
       <c r="S7" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="28" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="23" t="n">
         <v>2022</v>
@@ -3035,22 +3049,22 @@
         <v>5</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O8" s="24" t="n">
         <v>465</v>
@@ -3065,21 +3079,21 @@
         <v>58</v>
       </c>
       <c r="S8" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="28" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" s="23" t="n">
         <v>2022</v>
@@ -3094,22 +3108,22 @@
         <v>5</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O9" s="24" t="n">
         <v>465</v>
@@ -3124,21 +3138,21 @@
         <v>58</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="28" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="23" t="n">
         <v>2022</v>
@@ -3153,22 +3167,22 @@
         <v>5</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O10" s="24" t="n">
         <v>465</v>
@@ -3183,21 +3197,21 @@
         <v>58</v>
       </c>
       <c r="S10" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="28" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E11" s="23" t="n">
         <v>2022</v>
@@ -3212,22 +3226,22 @@
         <v>2</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O11" s="24" t="n">
         <v>378</v>
@@ -3242,21 +3256,21 @@
         <v>44</v>
       </c>
       <c r="S11" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" s="28" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E12" s="23" t="n">
         <v>2022</v>
@@ -3271,22 +3285,22 @@
         <v>2</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O12" s="24" t="n">
         <v>378</v>
@@ -3301,21 +3315,21 @@
         <v>44</v>
       </c>
       <c r="S12" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="28" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" s="23" t="n">
         <v>2022</v>
@@ -3330,22 +3344,22 @@
         <v>2</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O13" s="24" t="n">
         <v>378</v>
@@ -3360,21 +3374,21 @@
         <v>44</v>
       </c>
       <c r="S13" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="28" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E14" s="23" t="n">
         <v>2022</v>
@@ -3389,22 +3403,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O14" s="24" t="n">
         <v>378</v>
@@ -3419,21 +3433,21 @@
         <v>44</v>
       </c>
       <c r="S14" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" s="28" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E15" s="23" t="n">
         <v>2022</v>
@@ -3448,22 +3462,22 @@
         <v>2</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O15" s="24" t="n">
         <v>378</v>
@@ -3478,21 +3492,21 @@
         <v>44</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C16" s="28" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E16" s="23" t="n">
         <v>2022</v>
@@ -3507,22 +3521,22 @@
         <v>2</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O16" s="24" t="n">
         <v>378</v>
@@ -3537,21 +3551,21 @@
         <v>44</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>44907.5</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E17" s="23" t="n">
         <v>2022</v>
@@ -3566,22 +3580,22 @@
         <v>2</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O17" s="24" t="n">
         <v>378</v>
@@ -3596,21 +3610,21 @@
         <v>44</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C18" s="28" t="n">
         <v>44907.5069444444</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>2022</v>
@@ -3625,22 +3639,22 @@
         <v>2</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O18" s="24" t="n">
         <v>378</v>
@@ -3655,21 +3669,21 @@
         <v>44</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C19" s="28" t="n">
         <v>44907.5138888889</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E19" s="23" t="n">
         <v>2022</v>
@@ -3684,22 +3698,22 @@
         <v>2</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O19" s="24" t="n">
         <v>378</v>
@@ -3714,21 +3728,21 @@
         <v>44</v>
       </c>
       <c r="S19" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C20" s="28" t="n">
         <v>44881.5</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E20" s="23" t="n">
         <v>2022</v>
@@ -3743,22 +3757,22 @@
         <v>2</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O20" s="24" t="n">
         <v>509</v>
@@ -3773,21 +3787,21 @@
         <v>47</v>
       </c>
       <c r="S20" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" s="28" t="n">
         <v>44881.5069444444</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E21" s="23" t="n">
         <v>2022</v>
@@ -3802,22 +3816,22 @@
         <v>2</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O21" s="24" t="n">
         <v>509</v>
@@ -3832,21 +3846,21 @@
         <v>47</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>44881.5138888889</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E22" s="23" t="n">
         <v>2022</v>
@@ -3861,22 +3875,22 @@
         <v>2</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O22" s="24" t="n">
         <v>509</v>
@@ -3891,21 +3905,21 @@
         <v>47</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" s="28" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E23" s="23" t="n">
         <v>2022</v>
@@ -3920,22 +3934,22 @@
         <v>2</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O23" s="24" t="n">
         <v>509</v>
@@ -3950,21 +3964,21 @@
         <v>47</v>
       </c>
       <c r="S23" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="28" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E24" s="23" t="n">
         <v>2022</v>
@@ -3979,22 +3993,22 @@
         <v>2</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O24" s="24" t="n">
         <v>509</v>
@@ -4009,21 +4023,21 @@
         <v>47</v>
       </c>
       <c r="S24" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="28" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E25" s="23" t="n">
         <v>2022</v>
@@ -4038,22 +4052,22 @@
         <v>2</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O25" s="24" t="n">
         <v>509</v>
@@ -4068,21 +4082,21 @@
         <v>47</v>
       </c>
       <c r="S25" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C26" s="28" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E26" s="23" t="n">
         <v>2022</v>
@@ -4097,22 +4111,22 @@
         <v>2</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O26" s="24" t="n">
         <v>509</v>
@@ -4127,21 +4141,21 @@
         <v>47</v>
       </c>
       <c r="S26" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C27" s="28" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E27" s="23" t="n">
         <v>2022</v>
@@ -4156,22 +4170,22 @@
         <v>2</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O27" s="24" t="n">
         <v>509</v>
@@ -4186,21 +4200,21 @@
         <v>47</v>
       </c>
       <c r="S27" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" s="28" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E28" s="23" t="n">
         <v>2022</v>
@@ -4215,22 +4229,22 @@
         <v>2</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O28" s="24" t="n">
         <v>509</v>
@@ -4245,21 +4259,21 @@
         <v>47</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C29" s="28" t="n">
         <v>44243.5013888889</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E29" s="23" t="n">
         <v>2021</v>
@@ -4274,22 +4288,22 @@
         <v>2</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O29" s="24" t="n">
         <v>384</v>
@@ -4304,21 +4318,21 @@
         <v>60</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C30" s="28" t="n">
         <v>44243.5090277778</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E30" s="23" t="n">
         <v>2021</v>
@@ -4333,22 +4347,22 @@
         <v>2</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O30" s="24" t="n">
         <v>384</v>
@@ -4363,21 +4377,21 @@
         <v>60</v>
       </c>
       <c r="S30" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" s="28" t="n">
         <v>44243.5166666667</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E31" s="23" t="n">
         <v>2021</v>
@@ -4392,22 +4406,22 @@
         <v>2</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O31" s="24" t="n">
         <v>384</v>
@@ -4422,21 +4436,21 @@
         <v>60</v>
       </c>
       <c r="S31" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C32" s="28" t="n">
         <v>44273.5034722222</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E32" s="23" t="n">
         <v>2021</v>
@@ -4451,22 +4465,22 @@
         <v>2</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O32" s="24" t="n">
         <v>697</v>
@@ -4481,21 +4495,21 @@
         <v>72</v>
       </c>
       <c r="S32" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C33" s="28" t="n">
         <v>44273.5111111111</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33" s="23" t="n">
         <v>2021</v>
@@ -4510,22 +4524,22 @@
         <v>2</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="24" t="n">
         <v>697</v>
@@ -4540,21 +4554,21 @@
         <v>72</v>
       </c>
       <c r="S33" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C34" s="28" t="n">
         <v>44273.51875</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" s="23" t="n">
         <v>2021</v>
@@ -4569,22 +4583,22 @@
         <v>2</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="24" t="n">
         <v>697</v>
@@ -4599,21 +4613,21 @@
         <v>72</v>
       </c>
       <c r="S34" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C35" s="28" t="n">
         <v>44300.5034722222</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E35" s="23" t="n">
         <v>2021</v>
@@ -4628,22 +4642,22 @@
         <v>2</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="24" t="n">
         <v>1794</v>
@@ -4658,21 +4672,21 @@
         <v>146</v>
       </c>
       <c r="S35" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C36" s="28" t="n">
         <v>44300.5111111111</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E36" s="23" t="n">
         <v>2021</v>
@@ -4687,22 +4701,22 @@
         <v>2</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O36" s="24" t="n">
         <v>1794</v>
@@ -4717,21 +4731,21 @@
         <v>146</v>
       </c>
       <c r="S36" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C37" s="28" t="n">
         <v>44300.51875</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E37" s="23" t="n">
         <v>2021</v>
@@ -4746,22 +4760,22 @@
         <v>2</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O37" s="24" t="n">
         <v>1794</v>
@@ -4776,21 +4790,21 @@
         <v>146</v>
       </c>
       <c r="S37" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C38" s="28" t="n">
         <v>44245.5041666667</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="23" t="n">
         <v>2021</v>
@@ -4805,22 +4819,22 @@
         <v>5</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O38" s="24" t="n">
         <v>352</v>
@@ -4835,21 +4849,21 @@
         <v>46</v>
       </c>
       <c r="S38" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" s="28" t="n">
         <v>44245.5118055556</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E39" s="23" t="n">
         <v>2021</v>
@@ -4864,22 +4878,22 @@
         <v>5</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O39" s="24" t="n">
         <v>352</v>
@@ -4894,21 +4908,21 @@
         <v>46</v>
       </c>
       <c r="S39" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C40" s="28" t="n">
         <v>44245.5194444444</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E40" s="23" t="n">
         <v>2021</v>
@@ -4923,22 +4937,22 @@
         <v>5</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O40" s="24" t="n">
         <v>352</v>
@@ -4953,21 +4967,21 @@
         <v>46</v>
       </c>
       <c r="S40" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C41" s="28" t="n">
         <v>44271.5027777778</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E41" s="23" t="n">
         <v>2021</v>
@@ -4982,22 +4996,22 @@
         <v>5</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O41" s="24" t="n">
         <v>497</v>
@@ -5012,21 +5026,21 @@
         <v>42</v>
       </c>
       <c r="S41" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C42" s="28" t="n">
         <v>44271.5104166667</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E42" s="23" t="n">
         <v>2021</v>
@@ -5041,22 +5055,22 @@
         <v>5</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O42" s="24" t="n">
         <v>497</v>
@@ -5071,21 +5085,21 @@
         <v>42</v>
       </c>
       <c r="S42" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C43" s="28" t="n">
         <v>44271.5180555556</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E43" s="23" t="n">
         <v>2021</v>
@@ -5100,22 +5114,22 @@
         <v>5</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O43" s="24" t="n">
         <v>497</v>
@@ -5130,21 +5144,21 @@
         <v>42</v>
       </c>
       <c r="S43" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C44" s="28" t="n">
         <v>44305.5027777778</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44" s="23" t="n">
         <v>2021</v>
@@ -5159,22 +5173,22 @@
         <v>5</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M44" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O44" s="24" t="n">
         <v>1178</v>
@@ -5189,21 +5203,21 @@
         <v>90</v>
       </c>
       <c r="S44" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C45" s="28" t="n">
         <v>44305.5104166667</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E45" s="23" t="n">
         <v>2021</v>
@@ -5218,22 +5232,22 @@
         <v>5</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O45" s="24" t="n">
         <v>1178</v>
@@ -5248,21 +5262,21 @@
         <v>90</v>
       </c>
       <c r="S45" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C46" s="28" t="n">
         <v>44305.5180555556</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="23" t="n">
         <v>2021</v>
@@ -5277,22 +5291,22 @@
         <v>5</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O46" s="24" t="n">
         <v>1178</v>
@@ -5307,21 +5321,21 @@
         <v>90</v>
       </c>
       <c r="S46" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47" s="28" t="n">
         <v>44243.5055555556</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E47" s="23" t="n">
         <v>2021</v>
@@ -5336,22 +5350,22 @@
         <v>2</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O47" s="24" t="n">
         <v>387</v>
@@ -5366,21 +5380,21 @@
         <v>54</v>
       </c>
       <c r="S47" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C48" s="28" t="n">
         <v>44243.5131944445</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E48" s="23" t="n">
         <v>2021</v>
@@ -5395,22 +5409,22 @@
         <v>2</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O48" s="24" t="n">
         <v>387</v>
@@ -5425,21 +5439,21 @@
         <v>54</v>
       </c>
       <c r="S48" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C49" s="28" t="n">
         <v>44243.5208333333</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E49" s="23" t="n">
         <v>2021</v>
@@ -5454,22 +5468,22 @@
         <v>2</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O49" s="24" t="n">
         <v>387</v>
@@ -5484,21 +5498,21 @@
         <v>54</v>
       </c>
       <c r="S49" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C50" s="28" t="n">
         <v>44273.5</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E50" s="23" t="n">
         <v>2021</v>
@@ -5513,22 +5527,22 @@
         <v>2</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O50" s="24" t="n">
         <v>680</v>
@@ -5543,21 +5557,21 @@
         <v>63</v>
       </c>
       <c r="S50" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C51" s="28" t="n">
         <v>44273.5076388889</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E51" s="23" t="n">
         <v>2021</v>
@@ -5572,22 +5586,22 @@
         <v>2</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M51" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O51" s="24" t="n">
         <v>680</v>
@@ -5602,21 +5616,21 @@
         <v>63</v>
       </c>
       <c r="S51" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C52" s="28" t="n">
         <v>44273.5152777778</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E52" s="23" t="n">
         <v>2021</v>
@@ -5631,22 +5645,22 @@
         <v>2</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M52" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O52" s="24" t="n">
         <v>680</v>
@@ -5661,21 +5675,21 @@
         <v>63</v>
       </c>
       <c r="S52" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C53" s="28" t="n">
         <v>44299.5069444445</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E53" s="23" t="n">
         <v>2021</v>
@@ -5690,22 +5704,22 @@
         <v>2</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O53" s="24" t="n">
         <v>1258</v>
@@ -5720,21 +5734,21 @@
         <v>86</v>
       </c>
       <c r="S53" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C54" s="28" t="n">
         <v>44299.5145833333</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E54" s="23" t="n">
         <v>2021</v>
@@ -5749,22 +5763,22 @@
         <v>2</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O54" s="24" t="n">
         <v>1258</v>
@@ -5779,21 +5793,21 @@
         <v>86</v>
       </c>
       <c r="S54" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C55" s="28" t="n">
         <v>44299.5222222222</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E55" s="23" t="n">
         <v>2021</v>
@@ -5808,22 +5822,22 @@
         <v>2</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M55" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N55" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O55" s="24" t="n">
         <v>1258</v>
@@ -5838,7 +5852,7 @@
         <v>86</v>
       </c>
       <c r="S55" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5888,7 +5902,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>70</v>
@@ -5953,7 +5967,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>15</v>
@@ -6015,7 +6029,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="27" t="n">
         <v>44562.5</v>
@@ -6026,7 +6040,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>44881.5</v>
@@ -6037,7 +6051,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B4" s="28" t="n">
         <v>44887.5</v>
@@ -6048,7 +6062,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5" s="28" t="n">
         <v>44907.5</v>
@@ -6106,7 +6120,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>0</v>
@@ -6115,12 +6129,12 @@
         <v>1000</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>0</v>
@@ -6129,12 +6143,12 @@
         <v>1000</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B4" s="30" t="n">
         <v>0</v>
@@ -6143,7 +6157,7 @@
         <v>1000</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6189,17 +6203,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6265,7 +6279,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B2" s="23" t="n">
         <v>2</v>
@@ -6276,7 +6290,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B3" s="30" t="n">
         <v>3</v>

--- a/examples/campaigns/coral-reef-light/coral-reef.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef.xlsx
@@ -1075,7 +1075,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1119,11 +1119,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1249,7 +1244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1278,10 +1273,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1290,11 +1281,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1318,7 +1309,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,11 +1317,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1358,7 +1349,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1378,11 +1369,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1402,11 +1393,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,7 +1540,7 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1557,7 +1548,7 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1565,7 +1556,7 @@
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1573,39 +1564,39 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1619,7 +1610,7 @@
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1627,7 +1618,7 @@
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1635,15 +1626,15 @@
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1657,7 +1648,7 @@
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1665,7 +1656,7 @@
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1673,7 +1664,7 @@
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1687,7 +1678,7 @@
       <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1695,7 +1686,7 @@
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1709,7 +1700,7 @@
       <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1717,7 +1708,7 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1725,7 +1716,7 @@
       <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1739,7 +1730,7 @@
       <c r="A38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1747,7 +1738,7 @@
       <c r="A39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1755,7 +1746,7 @@
       <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1763,7 +1754,7 @@
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1777,7 +1768,7 @@
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1791,7 +1782,7 @@
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1805,7 +1796,7 @@
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1813,7 +1804,7 @@
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1821,7 +1812,7 @@
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1835,7 +1826,7 @@
       <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1843,31 +1834,31 @@
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1906,63 +1897,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>203</v>
       </c>
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="24" t="n">
+      <c r="B2" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="24" t="n">
+      <c r="D2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="n">
+      <c r="E2" s="23" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="31" t="n">
+      <c r="B3" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="23" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2001,98 +1992,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="31" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="31" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="30" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="28" t="n">
+      <c r="B2" s="27" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="27" t="n">
         <v>44882.5034722222</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="28" t="n">
+      <c r="B3" s="27" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="27" t="n">
         <v>44888.5034722222</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="28" t="n">
+      <c r="B4" s="27" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="27" t="n">
         <v>44908.5034722222</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2129,13 +2120,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>213</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2143,74 +2134,74 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2243,13 +2234,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2257,71 +2248,71 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2352,22 +2343,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2396,27 +2387,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2449,32 +2440,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2513,80 +2504,80 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="15" t="n">
         <v>44100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="17" t="n">
         <v>44197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20" t="n">
-        <v>5</v>
+      <c r="B8" s="19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20" t="n">
-        <v>50</v>
+      <c r="B9" s="19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="B10" s="19" t="n">
         <v>42000</v>
       </c>
     </row>
@@ -2622,3257 +2613,3257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="63.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="22.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="24" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="25" width="15.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="20" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="56.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="63.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="23" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="24" width="15.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="20" style="24" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1009" min="35" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="27" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="24" t="n">
+      <c r="E2" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="24" t="n">
+      <c r="G2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="24" t="n">
+      <c r="H2" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="25" t="n">
+      <c r="L2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P2" s="25" t="n">
+      <c r="P2" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q2" s="25" t="n">
+      <c r="Q2" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R2" s="25" t="n">
+      <c r="R2" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="27" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F3" s="24" t="n">
+      <c r="F3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="24" t="n">
+      <c r="G3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" s="25" t="n">
+      <c r="M3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P3" s="25" t="n">
+      <c r="P3" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q3" s="25" t="n">
+      <c r="Q3" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R3" s="25" t="n">
+      <c r="R3" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="27" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="24" t="n">
+      <c r="G4" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="25" t="n">
+      <c r="M4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P4" s="25" t="n">
+      <c r="P4" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q4" s="25" t="n">
+      <c r="Q4" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R4" s="25" t="n">
+      <c r="R4" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="29" t="n">
+      <c r="C5" s="28" t="n">
         <v>44887.5</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F5" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="24" t="n">
+      <c r="F5" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="25" t="n">
+      <c r="M5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P5" s="25" t="n">
+      <c r="P5" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q5" s="25" t="n">
+      <c r="Q5" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R5" s="25" t="n">
+      <c r="R5" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="29" t="n">
+      <c r="C6" s="28" t="n">
         <v>44887.5069444444</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F6" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="24" t="n">
+      <c r="F6" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="25" t="n">
+      <c r="M6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P6" s="25" t="n">
+      <c r="P6" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q6" s="25" t="n">
+      <c r="Q6" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R6" s="25" t="n">
+      <c r="R6" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="28" t="n">
         <v>44887.5138888889</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F7" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="24" t="n">
+      <c r="F7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="25" t="n">
+      <c r="M7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P7" s="25" t="n">
+      <c r="P7" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q7" s="25" t="n">
+      <c r="Q7" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R7" s="25" t="n">
+      <c r="R7" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" s="28" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="24" t="n">
+      <c r="G8" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="25" t="n">
+      <c r="M8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P8" s="25" t="n">
+      <c r="P8" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q8" s="25" t="n">
+      <c r="Q8" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R8" s="25" t="n">
+      <c r="R8" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="C9" s="28" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="25" t="n">
+      <c r="M9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P9" s="25" t="n">
+      <c r="P9" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q9" s="25" t="n">
+      <c r="Q9" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R9" s="25" t="n">
+      <c r="R9" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="29" t="n">
+      <c r="C10" s="28" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="25" t="n">
+      <c r="M10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="24" t="n">
         <v>465</v>
       </c>
-      <c r="P10" s="25" t="n">
+      <c r="P10" s="24" t="n">
         <v>62</v>
       </c>
-      <c r="Q10" s="25" t="n">
+      <c r="Q10" s="24" t="n">
         <v>461</v>
       </c>
-      <c r="R10" s="25" t="n">
+      <c r="R10" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="28" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F11" s="24" t="n">
+      <c r="F11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="25" t="n">
+      <c r="L11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P11" s="25" t="n">
+      <c r="P11" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q11" s="25" t="n">
+      <c r="Q11" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R11" s="25" t="n">
+      <c r="R11" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="28" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="n">
+      <c r="G12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="25" t="n">
+      <c r="L12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P12" s="25" t="n">
+      <c r="P12" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q12" s="25" t="n">
+      <c r="Q12" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R12" s="25" t="n">
+      <c r="R12" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="28" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F13" s="24" t="n">
+      <c r="F13" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="24" t="n">
+      <c r="G13" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="H13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="25" t="n">
+      <c r="L13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P13" s="25" t="n">
+      <c r="P13" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q13" s="25" t="n">
+      <c r="Q13" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R13" s="25" t="n">
+      <c r="R13" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="28" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F14" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="F14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="25" t="n">
+      <c r="L14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P14" s="25" t="n">
+      <c r="P14" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q14" s="25" t="n">
+      <c r="Q14" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R14" s="25" t="n">
+      <c r="R14" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="C15" s="28" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F15" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="F15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="25" t="n">
+      <c r="L15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P15" s="25" t="n">
+      <c r="P15" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q15" s="25" t="n">
+      <c r="Q15" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R15" s="25" t="n">
+      <c r="R15" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="28" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F16" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="25" t="n">
+      <c r="L16" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P16" s="25" t="n">
+      <c r="P16" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q16" s="25" t="n">
+      <c r="Q16" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R16" s="25" t="n">
+      <c r="R16" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="29" t="n">
+      <c r="C17" s="28" t="n">
         <v>44907.5</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F17" s="24" t="n">
+      <c r="F17" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="24" t="n">
+      <c r="G17" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="25" t="n">
+      <c r="L17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P17" s="25" t="n">
+      <c r="P17" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q17" s="25" t="n">
+      <c r="Q17" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R17" s="25" t="n">
+      <c r="R17" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="29" t="n">
+      <c r="C18" s="28" t="n">
         <v>44907.5069444444</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="24" t="n">
+      <c r="E18" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F18" s="24" t="n">
+      <c r="F18" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="24" t="n">
+      <c r="G18" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="24" t="s">
+      <c r="H18" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="25" t="n">
+      <c r="L18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P18" s="25" t="n">
+      <c r="P18" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q18" s="25" t="n">
+      <c r="Q18" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R18" s="25" t="n">
+      <c r="R18" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="29" t="n">
+      <c r="C19" s="28" t="n">
         <v>44907.5138888889</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F19" s="24" t="n">
+      <c r="F19" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="24" t="n">
+      <c r="G19" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="25" t="n">
+      <c r="L19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="24" t="n">
         <v>378</v>
       </c>
-      <c r="P19" s="25" t="n">
+      <c r="P19" s="24" t="n">
         <v>52</v>
       </c>
-      <c r="Q19" s="25" t="n">
+      <c r="Q19" s="24" t="n">
         <v>334</v>
       </c>
-      <c r="R19" s="25" t="n">
+      <c r="R19" s="24" t="n">
         <v>44</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="29" t="n">
+      <c r="C20" s="28" t="n">
         <v>44881.5</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F20" s="24" t="n">
+      <c r="F20" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="24" t="n">
+      <c r="G20" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="H20" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="25" t="n">
+      <c r="L20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P20" s="25" t="n">
+      <c r="P20" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q20" s="25" t="n">
+      <c r="Q20" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R20" s="25" t="n">
+      <c r="R20" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="29" t="n">
+      <c r="C21" s="28" t="n">
         <v>44881.5069444444</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="24" t="n">
+      <c r="E21" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F21" s="24" t="n">
+      <c r="F21" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="24" t="n">
+      <c r="G21" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="25" t="n">
+      <c r="L21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P21" s="25" t="n">
+      <c r="P21" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q21" s="25" t="n">
+      <c r="Q21" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R21" s="25" t="n">
+      <c r="R21" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="29" t="n">
+      <c r="C22" s="28" t="n">
         <v>44881.5138888889</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="24" t="n">
+      <c r="G22" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="24" t="s">
+      <c r="H22" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="25" t="n">
+      <c r="L22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P22" s="25" t="n">
+      <c r="P22" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q22" s="25" t="n">
+      <c r="Q22" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R22" s="25" t="n">
+      <c r="R22" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C23" s="28" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="24" t="n">
+      <c r="E23" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F23" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="24" t="s">
+      <c r="F23" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="25" t="n">
+      <c r="L23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P23" s="25" t="n">
+      <c r="P23" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q23" s="25" t="n">
+      <c r="Q23" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R23" s="25" t="n">
+      <c r="R23" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="29" t="n">
+      <c r="C24" s="28" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="24" t="n">
+      <c r="E24" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F24" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="24" t="s">
+      <c r="F24" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="25" t="n">
+      <c r="L24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P24" s="25" t="n">
+      <c r="P24" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q24" s="25" t="n">
+      <c r="Q24" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R24" s="25" t="n">
+      <c r="R24" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="29" t="n">
+      <c r="C25" s="28" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="24" t="s">
+      <c r="F25" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O25" s="25" t="n">
+      <c r="L25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P25" s="25" t="n">
+      <c r="P25" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q25" s="25" t="n">
+      <c r="Q25" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R25" s="25" t="n">
+      <c r="R25" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="29" t="n">
+      <c r="C26" s="28" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="24" t="n">
+      <c r="E26" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F26" s="24" t="n">
+      <c r="F26" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="24" t="n">
+      <c r="G26" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="H26" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O26" s="25" t="n">
+      <c r="L26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P26" s="25" t="n">
+      <c r="P26" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q26" s="25" t="n">
+      <c r="Q26" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R26" s="25" t="n">
+      <c r="R26" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S26" s="25" t="s">
+      <c r="S26" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="29" t="n">
+      <c r="C27" s="28" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="24" t="n">
+      <c r="E27" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="24" t="n">
+      <c r="G27" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="25" t="n">
+      <c r="L27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P27" s="25" t="n">
+      <c r="P27" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q27" s="25" t="n">
+      <c r="Q27" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R27" s="25" t="n">
+      <c r="R27" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S27" s="25" t="s">
+      <c r="S27" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="29" t="n">
+      <c r="C28" s="28" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="24" t="n">
+      <c r="E28" s="23" t="n">
         <v>2022</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="24" t="n">
+      <c r="G28" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" s="24" t="s">
+      <c r="H28" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" s="25" t="n">
+      <c r="L28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="24" t="n">
         <v>509</v>
       </c>
-      <c r="P28" s="25" t="n">
+      <c r="P28" s="24" t="n">
         <v>58</v>
       </c>
-      <c r="Q28" s="25" t="n">
+      <c r="Q28" s="24" t="n">
         <v>486</v>
       </c>
-      <c r="R28" s="25" t="n">
+      <c r="R28" s="24" t="n">
         <v>47</v>
       </c>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="29" t="n">
+      <c r="C29" s="28" t="n">
         <v>44243.5013888889</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E29" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F29" s="24" t="n">
+      <c r="F29" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="24" t="n">
+      <c r="G29" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="24" t="s">
+      <c r="H29" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O29" s="25" t="n">
+      <c r="L29" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="24" t="n">
         <v>384</v>
       </c>
-      <c r="P29" s="25" t="n">
+      <c r="P29" s="24" t="n">
         <v>69</v>
       </c>
-      <c r="Q29" s="25" t="n">
+      <c r="Q29" s="24" t="n">
         <v>367</v>
       </c>
-      <c r="R29" s="25" t="n">
+      <c r="R29" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="29" t="n">
+      <c r="C30" s="28" t="n">
         <v>44243.5090277778</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="24" t="n">
+      <c r="E30" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F30" s="24" t="n">
+      <c r="F30" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="24" t="n">
+      <c r="G30" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" s="24" t="s">
+      <c r="H30" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O30" s="25" t="n">
+      <c r="L30" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="24" t="n">
         <v>384</v>
       </c>
-      <c r="P30" s="25" t="n">
+      <c r="P30" s="24" t="n">
         <v>69</v>
       </c>
-      <c r="Q30" s="25" t="n">
+      <c r="Q30" s="24" t="n">
         <v>367</v>
       </c>
-      <c r="R30" s="25" t="n">
+      <c r="R30" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="S30" s="25" t="s">
+      <c r="S30" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="29" t="n">
+      <c r="C31" s="28" t="n">
         <v>44243.5166666667</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="24" t="n">
+      <c r="E31" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F31" s="24" t="n">
+      <c r="F31" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="24" t="n">
+      <c r="G31" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="24" t="s">
+      <c r="H31" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O31" s="25" t="n">
+      <c r="L31" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O31" s="24" t="n">
         <v>384</v>
       </c>
-      <c r="P31" s="25" t="n">
+      <c r="P31" s="24" t="n">
         <v>69</v>
       </c>
-      <c r="Q31" s="25" t="n">
+      <c r="Q31" s="24" t="n">
         <v>367</v>
       </c>
-      <c r="R31" s="25" t="n">
+      <c r="R31" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="29" t="n">
+      <c r="C32" s="28" t="n">
         <v>44273.5034722222</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="24" t="n">
+      <c r="E32" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F32" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="24" t="s">
+      <c r="F32" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O32" s="25" t="n">
+      <c r="L32" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O32" s="24" t="n">
         <v>697</v>
       </c>
-      <c r="P32" s="25" t="n">
+      <c r="P32" s="24" t="n">
         <v>88</v>
       </c>
-      <c r="Q32" s="25" t="n">
+      <c r="Q32" s="24" t="n">
         <v>656</v>
       </c>
-      <c r="R32" s="25" t="n">
+      <c r="R32" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="29" t="n">
+      <c r="C33" s="28" t="n">
         <v>44273.5111111111</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="24" t="n">
+      <c r="E33" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" s="24" t="s">
+      <c r="F33" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33" s="25" t="n">
+      <c r="L33" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="24" t="n">
         <v>697</v>
       </c>
-      <c r="P33" s="25" t="n">
+      <c r="P33" s="24" t="n">
         <v>88</v>
       </c>
-      <c r="Q33" s="25" t="n">
+      <c r="Q33" s="24" t="n">
         <v>656</v>
       </c>
-      <c r="R33" s="25" t="n">
+      <c r="R33" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="S33" s="25" t="s">
+      <c r="S33" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="29" t="n">
+      <c r="C34" s="28" t="n">
         <v>44273.51875</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F34" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="24" t="s">
+      <c r="F34" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="25" t="n">
+      <c r="L34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="24" t="n">
         <v>697</v>
       </c>
-      <c r="P34" s="25" t="n">
+      <c r="P34" s="24" t="n">
         <v>88</v>
       </c>
-      <c r="Q34" s="25" t="n">
+      <c r="Q34" s="24" t="n">
         <v>656</v>
       </c>
-      <c r="R34" s="25" t="n">
+      <c r="R34" s="24" t="n">
         <v>72</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="S34" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="29" t="n">
+      <c r="C35" s="28" t="n">
         <v>44300.5034722222</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="24" t="n">
+      <c r="E35" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F35" s="24" t="n">
+      <c r="F35" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="24" t="n">
+      <c r="G35" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="24" t="s">
+      <c r="H35" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" s="25" t="n">
+      <c r="L35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O35" s="24" t="n">
         <v>1794</v>
       </c>
-      <c r="P35" s="25" t="n">
+      <c r="P35" s="24" t="n">
         <v>194</v>
       </c>
-      <c r="Q35" s="25" t="n">
+      <c r="Q35" s="24" t="n">
         <v>1500</v>
       </c>
-      <c r="R35" s="25" t="n">
+      <c r="R35" s="24" t="n">
         <v>146</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="29" t="n">
+      <c r="C36" s="28" t="n">
         <v>44300.5111111111</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="24" t="n">
+      <c r="E36" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F36" s="24" t="n">
+      <c r="F36" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G36" s="24" t="n">
+      <c r="G36" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="24" t="s">
+      <c r="H36" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" s="25" t="n">
+      <c r="L36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O36" s="24" t="n">
         <v>1794</v>
       </c>
-      <c r="P36" s="25" t="n">
+      <c r="P36" s="24" t="n">
         <v>194</v>
       </c>
-      <c r="Q36" s="25" t="n">
+      <c r="Q36" s="24" t="n">
         <v>1500</v>
       </c>
-      <c r="R36" s="25" t="n">
+      <c r="R36" s="24" t="n">
         <v>146</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="29" t="n">
+      <c r="C37" s="28" t="n">
         <v>44300.51875</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="24" t="n">
+      <c r="E37" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F37" s="24" t="n">
+      <c r="F37" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="24" t="n">
+      <c r="G37" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="24" t="s">
+      <c r="H37" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N37" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O37" s="25" t="n">
+      <c r="L37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="24" t="n">
         <v>1794</v>
       </c>
-      <c r="P37" s="25" t="n">
+      <c r="P37" s="24" t="n">
         <v>194</v>
       </c>
-      <c r="Q37" s="25" t="n">
+      <c r="Q37" s="24" t="n">
         <v>1500</v>
       </c>
-      <c r="R37" s="25" t="n">
+      <c r="R37" s="24" t="n">
         <v>146</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="S37" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="29" t="n">
+      <c r="C38" s="28" t="n">
         <v>44245.5041666667</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="24" t="n">
+      <c r="E38" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F38" s="24" t="n">
+      <c r="F38" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="24" t="n">
+      <c r="G38" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="24" t="n">
+      <c r="H38" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L38" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38" s="25" t="n">
+      <c r="L38" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" s="24" t="n">
         <v>352</v>
       </c>
-      <c r="P38" s="25" t="n">
+      <c r="P38" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Q38" s="25" t="n">
+      <c r="Q38" s="24" t="n">
         <v>347</v>
       </c>
-      <c r="R38" s="25" t="n">
+      <c r="R38" s="24" t="n">
         <v>46</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="29" t="n">
+      <c r="C39" s="28" t="n">
         <v>44245.5118055556</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="24" t="n">
+      <c r="E39" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F39" s="24" t="n">
+      <c r="F39" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="24" t="n">
+      <c r="G39" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="24" t="n">
+      <c r="H39" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="25" t="n">
+      <c r="L39" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39" s="24" t="n">
         <v>352</v>
       </c>
-      <c r="P39" s="25" t="n">
+      <c r="P39" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Q39" s="25" t="n">
+      <c r="Q39" s="24" t="n">
         <v>347</v>
       </c>
-      <c r="R39" s="25" t="n">
+      <c r="R39" s="24" t="n">
         <v>46</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="S39" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="29" t="n">
+      <c r="C40" s="28" t="n">
         <v>44245.5194444444</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="24" t="n">
+      <c r="E40" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F40" s="24" t="n">
+      <c r="F40" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="24" t="n">
+      <c r="G40" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="24" t="n">
+      <c r="H40" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N40" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40" s="25" t="n">
+      <c r="L40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O40" s="24" t="n">
         <v>352</v>
       </c>
-      <c r="P40" s="25" t="n">
+      <c r="P40" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="Q40" s="25" t="n">
+      <c r="Q40" s="24" t="n">
         <v>347</v>
       </c>
-      <c r="R40" s="25" t="n">
+      <c r="R40" s="24" t="n">
         <v>46</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S40" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="29" t="n">
+      <c r="C41" s="28" t="n">
         <v>44271.5027777778</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="24" t="n">
+      <c r="E41" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F41" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="24" t="n">
+      <c r="F41" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="L41" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N41" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="25" t="n">
+      <c r="M41" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O41" s="24" t="n">
         <v>497</v>
       </c>
-      <c r="P41" s="25" t="n">
+      <c r="P41" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="Q41" s="25" t="n">
+      <c r="Q41" s="24" t="n">
         <v>483</v>
       </c>
-      <c r="R41" s="25" t="n">
+      <c r="R41" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="S41" s="25" t="s">
+      <c r="S41" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="29" t="n">
+      <c r="C42" s="28" t="n">
         <v>44271.5104166667</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="24" t="n">
+      <c r="E42" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F42" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="24" t="n">
+      <c r="F42" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L42" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M42" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N42" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O42" s="25" t="n">
+      <c r="L42" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O42" s="24" t="n">
         <v>497</v>
       </c>
-      <c r="P42" s="25" t="n">
+      <c r="P42" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="Q42" s="25" t="n">
+      <c r="Q42" s="24" t="n">
         <v>483</v>
       </c>
-      <c r="R42" s="25" t="n">
+      <c r="R42" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="S42" s="25" t="s">
+      <c r="S42" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="29" t="n">
+      <c r="C43" s="28" t="n">
         <v>44271.5180555556</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="24" t="n">
+      <c r="E43" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F43" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="24" t="n">
+      <c r="F43" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L43" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O43" s="25" t="n">
+      <c r="L43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O43" s="24" t="n">
         <v>497</v>
       </c>
-      <c r="P43" s="25" t="n">
+      <c r="P43" s="24" t="n">
         <v>45</v>
       </c>
-      <c r="Q43" s="25" t="n">
+      <c r="Q43" s="24" t="n">
         <v>483</v>
       </c>
-      <c r="R43" s="25" t="n">
+      <c r="R43" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="S43" s="25" t="s">
+      <c r="S43" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="29" t="n">
+      <c r="C44" s="28" t="n">
         <v>44305.5027777778</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="24" t="n">
+      <c r="E44" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F44" s="24" t="n">
+      <c r="F44" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="24" t="n">
+      <c r="G44" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H44" s="24" t="n">
+      <c r="H44" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O44" s="25" t="n">
+      <c r="L44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O44" s="24" t="n">
         <v>1178</v>
       </c>
-      <c r="P44" s="25" t="n">
+      <c r="P44" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Q44" s="25" t="n">
+      <c r="Q44" s="24" t="n">
         <v>1092</v>
       </c>
-      <c r="R44" s="25" t="n">
+      <c r="R44" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="S44" s="25" t="s">
+      <c r="S44" s="24" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="29" t="n">
+      <c r="C45" s="28" t="n">
         <v>44305.5104166667</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="24" t="n">
+      <c r="E45" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F45" s="24" t="n">
+      <c r="F45" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="24" t="n">
+      <c r="G45" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H45" s="24" t="n">
+      <c r="H45" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="25" t="s">
+      <c r="L45" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M45" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N45" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O45" s="25" t="n">
+      <c r="M45" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O45" s="24" t="n">
         <v>1178</v>
       </c>
-      <c r="P45" s="25" t="n">
+      <c r="P45" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Q45" s="25" t="n">
+      <c r="Q45" s="24" t="n">
         <v>1092</v>
       </c>
-      <c r="R45" s="25" t="n">
+      <c r="R45" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="S45" s="25" t="s">
+      <c r="S45" s="24" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="29" t="n">
+      <c r="C46" s="28" t="n">
         <v>44305.5180555556</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="24" t="n">
+      <c r="E46" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F46" s="24" t="n">
+      <c r="F46" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G46" s="24" t="n">
+      <c r="G46" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H46" s="24" t="n">
+      <c r="H46" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="K46" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O46" s="25" t="n">
+      <c r="L46" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O46" s="24" t="n">
         <v>1178</v>
       </c>
-      <c r="P46" s="25" t="n">
+      <c r="P46" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="Q46" s="25" t="n">
+      <c r="Q46" s="24" t="n">
         <v>1092</v>
       </c>
-      <c r="R46" s="25" t="n">
+      <c r="R46" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="S46" s="25" t="s">
+      <c r="S46" s="24" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="29" t="n">
+      <c r="C47" s="28" t="n">
         <v>44243.5055555556</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="24" t="n">
+      <c r="E47" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F47" s="24" t="n">
+      <c r="F47" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="24" t="n">
+      <c r="G47" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H47" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" s="24" t="s">
+      <c r="H47" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="25" t="n">
+      <c r="L47" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M47" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O47" s="24" t="n">
         <v>387</v>
       </c>
-      <c r="P47" s="25" t="n">
+      <c r="P47" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="Q47" s="25" t="n">
+      <c r="Q47" s="24" t="n">
         <v>369</v>
       </c>
-      <c r="R47" s="25" t="n">
+      <c r="R47" s="24" t="n">
         <v>54</v>
       </c>
-      <c r="S47" s="25" t="s">
+      <c r="S47" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="29" t="n">
+      <c r="C48" s="28" t="n">
         <v>44243.5131944445</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="24" t="n">
+      <c r="E48" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F48" s="24" t="n">
+      <c r="F48" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="24" t="n">
+      <c r="G48" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" s="24" t="s">
+      <c r="H48" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K48" s="25" t="s">
+      <c r="K48" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L48" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M48" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O48" s="25" t="n">
+      <c r="L48" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O48" s="24" t="n">
         <v>387</v>
       </c>
-      <c r="P48" s="25" t="n">
+      <c r="P48" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="Q48" s="25" t="n">
+      <c r="Q48" s="24" t="n">
         <v>369</v>
       </c>
-      <c r="R48" s="25" t="n">
+      <c r="R48" s="24" t="n">
         <v>54</v>
       </c>
-      <c r="S48" s="25" t="s">
+      <c r="S48" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="29" t="n">
+      <c r="C49" s="28" t="n">
         <v>44243.5208333333</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="24" t="n">
+      <c r="E49" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F49" s="24" t="n">
+      <c r="F49" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="24" t="n">
+      <c r="G49" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="24" t="s">
+      <c r="H49" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J49" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="K49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L49" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O49" s="25" t="n">
+      <c r="L49" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O49" s="24" t="n">
         <v>387</v>
       </c>
-      <c r="P49" s="25" t="n">
+      <c r="P49" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="Q49" s="25" t="n">
+      <c r="Q49" s="24" t="n">
         <v>369</v>
       </c>
-      <c r="R49" s="25" t="n">
+      <c r="R49" s="24" t="n">
         <v>54</v>
       </c>
-      <c r="S49" s="25" t="s">
+      <c r="S49" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="29" t="n">
+      <c r="C50" s="28" t="n">
         <v>44273.5</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="24" t="n">
+      <c r="E50" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F50" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="24" t="s">
+      <c r="F50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K50" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L50" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M50" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N50" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O50" s="25" t="n">
+      <c r="L50" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O50" s="24" t="n">
         <v>680</v>
       </c>
-      <c r="P50" s="25" t="n">
+      <c r="P50" s="24" t="n">
         <v>87</v>
       </c>
-      <c r="Q50" s="25" t="n">
+      <c r="Q50" s="24" t="n">
         <v>606</v>
       </c>
-      <c r="R50" s="25" t="n">
+      <c r="R50" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="S50" s="25" t="s">
+      <c r="S50" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="29" t="n">
+      <c r="C51" s="28" t="n">
         <v>44273.5076388889</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="24" t="n">
+      <c r="E51" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F51" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" s="24" t="s">
+      <c r="F51" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="K51" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N51" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O51" s="25" t="n">
+      <c r="L51" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N51" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O51" s="24" t="n">
         <v>680</v>
       </c>
-      <c r="P51" s="25" t="n">
+      <c r="P51" s="24" t="n">
         <v>87</v>
       </c>
-      <c r="Q51" s="25" t="n">
+      <c r="Q51" s="24" t="n">
         <v>606</v>
       </c>
-      <c r="R51" s="25" t="n">
+      <c r="R51" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="S51" s="25" t="s">
+      <c r="S51" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="29" t="n">
+      <c r="C52" s="28" t="n">
         <v>44273.5152777778</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="24" t="n">
+      <c r="E52" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F52" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" s="24" t="s">
+      <c r="F52" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="25" t="s">
+      <c r="K52" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L52" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M52" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N52" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O52" s="25" t="n">
+      <c r="L52" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O52" s="24" t="n">
         <v>680</v>
       </c>
-      <c r="P52" s="25" t="n">
+      <c r="P52" s="24" t="n">
         <v>87</v>
       </c>
-      <c r="Q52" s="25" t="n">
+      <c r="Q52" s="24" t="n">
         <v>606</v>
       </c>
-      <c r="R52" s="25" t="n">
+      <c r="R52" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="S52" s="25" t="s">
+      <c r="S52" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="29" t="n">
+      <c r="C53" s="28" t="n">
         <v>44299.5069444445</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="24" t="n">
+      <c r="E53" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F53" s="24" t="n">
+      <c r="F53" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="24" t="n">
+      <c r="G53" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H53" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" s="24" t="s">
+      <c r="H53" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K53" s="25" t="s">
+      <c r="K53" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L53" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O53" s="25" t="n">
+      <c r="L53" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O53" s="24" t="n">
         <v>1258</v>
       </c>
-      <c r="P53" s="25" t="n">
+      <c r="P53" s="24" t="n">
         <v>103</v>
       </c>
-      <c r="Q53" s="25" t="n">
+      <c r="Q53" s="24" t="n">
         <v>1175</v>
       </c>
-      <c r="R53" s="25" t="n">
+      <c r="R53" s="24" t="n">
         <v>86</v>
       </c>
-      <c r="S53" s="25" t="s">
+      <c r="S53" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="29" t="n">
+      <c r="C54" s="28" t="n">
         <v>44299.5145833333</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="24" t="n">
+      <c r="E54" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F54" s="24" t="n">
+      <c r="F54" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="24" t="n">
+      <c r="G54" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H54" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" s="24" t="s">
+      <c r="H54" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="J54" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K54" s="25" t="s">
+      <c r="K54" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L54" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N54" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O54" s="25" t="n">
+      <c r="L54" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O54" s="24" t="n">
         <v>1258</v>
       </c>
-      <c r="P54" s="25" t="n">
+      <c r="P54" s="24" t="n">
         <v>103</v>
       </c>
-      <c r="Q54" s="25" t="n">
+      <c r="Q54" s="24" t="n">
         <v>1175</v>
       </c>
-      <c r="R54" s="25" t="n">
+      <c r="R54" s="24" t="n">
         <v>86</v>
       </c>
-      <c r="S54" s="25" t="s">
+      <c r="S54" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="29" t="n">
+      <c r="C55" s="28" t="n">
         <v>44299.5222222222</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="24" t="n">
+      <c r="E55" s="23" t="n">
         <v>2021</v>
       </c>
-      <c r="F55" s="24" t="n">
+      <c r="F55" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="24" t="n">
+      <c r="G55" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="H55" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" s="24" t="s">
+      <c r="H55" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K55" s="25" t="s">
+      <c r="K55" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L55" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="M55" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N55" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O55" s="25" t="n">
+      <c r="L55" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="O55" s="24" t="n">
         <v>1258</v>
       </c>
-      <c r="P55" s="25" t="n">
+      <c r="P55" s="24" t="n">
         <v>103</v>
       </c>
-      <c r="Q55" s="25" t="n">
+      <c r="Q55" s="24" t="n">
         <v>1175</v>
       </c>
-      <c r="R55" s="25" t="n">
+      <c r="R55" s="24" t="n">
         <v>86</v>
       </c>
-      <c r="S55" s="25" t="s">
+      <c r="S55" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5905,44 +5896,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="31" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="31" t="n">
+      <c r="B2" s="30" t="n">
         <v>70</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="30" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5973,35 +5964,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="18.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="31" t="n">
+      <c r="B2" s="30" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6032,63 +6023,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="31" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="20.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="28" t="n">
+      <c r="B2" s="27" t="n">
         <v>44562.5</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="27" t="n">
         <v>44926.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="28" t="n">
+      <c r="B3" s="27" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="27" t="n">
         <v>44882.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="29" t="n">
+      <c r="B4" s="28" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="27" t="n">
         <v>44888.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="29" t="n">
+      <c r="B5" s="28" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C5" s="29" t="n">
+      <c r="C5" s="28" t="n">
         <v>44908.5</v>
       </c>
     </row>
@@ -6117,67 +6108,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="31" t="n">
+      <c r="B2" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="31" t="n">
+      <c r="B3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="31" t="n">
+      <c r="B4" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="23" t="n">
         <v>1000</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6213,27 +6204,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="15.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6272,48 +6263,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="31" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="31" t="n">
+      <c r="B3" s="30" t="n">
         <v>3</v>
       </c>
     </row>

--- a/examples/campaigns/coral-reef-light/coral-reef.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef.xlsx
@@ -14,11 +14,11 @@
     <sheet name="Bands" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Integrations" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Ranges" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Extractors" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Digesters" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reducers" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Autoclusters" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Trajectories" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Trajectories" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Extractors" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Digesters" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reducers" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Autoclusters" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="ListExtractors" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="ListDigesters" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="ListAutoclusters" sheetId="14" state="visible" r:id="rId15"/>
@@ -34,7 +34,30 @@
 </workbook>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Use 2 or 3 unless not human</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
@@ -70,48 +93,26 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Use 2 or 3 unless not human</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="249">
   <si>
-    <t xml:space="preserve">Sound Scape Explorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Instructions</t>
   </si>
   <si>
+    <t xml:space="preserve">SoundScapeExplorer
+Version 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fill the yellow tabs</t>
   </si>
   <si>
-    <t xml:space="preserve">See help below</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find documentation here: https://github.com/sound-scape-explorer/sound-scape-explorer#readme</t>
+    <t xml:space="preserve">Configure the blue tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find more information in grey tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiki: https://github.com/sound-scape-explorer/sound-scape-explorer/wiki</t>
   </si>
   <si>
     <t xml:space="preserve">Settings</t>
@@ -893,6 +894,27 @@
     <t xml:space="preserve">r_dec_2022</t>
   </si>
   <si>
+    <t xml:space="preserve">label_property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day3</t>
+  </si>
+  <si>
     <t xml:space="preserve">vgg</t>
   </si>
   <si>
@@ -936,27 +958,6 @@
   </si>
   <si>
     <t xml:space="preserve">hdbscan-leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day3</t>
   </si>
   <si>
     <t xml:space="preserve">indicator</t>
@@ -1159,7 +1160,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,8 +1175,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FF111111"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1186,20 +1193,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF443205"/>
+        <bgColor rgb="FF383D3C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF443205"/>
-        <bgColor rgb="FF333333"/>
+        <fgColor rgb="FF383D3C"/>
+        <bgColor rgb="FF443205"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF111111"/>
       </patternFill>
     </fill>
   </fills>
@@ -1244,7 +1275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1253,24 +1284,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1281,63 +1328,63 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1345,39 +1392,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,12 +1424,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1426,16 +1489,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFD7"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1445,7 +1508,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -1462,12 +1525,12 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF443205"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF383D3C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1476,398 +1539,402 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
+    <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="0" ySplit="5" topLeftCell="B6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="90.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B51" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+    <row r="58" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B58" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+    <row r="59" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B59" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+    <row r="60" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B60" s="14" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="readme" display="Find documentation here: https://github.com/sound-scape-explorer/sound-scape-explorer#readme"/>
+    <hyperlink ref="B5" r:id="rId1" display="Wiki: https://github.com/sound-scape-explorer/sound-scape-explorer/wiki"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1882,7 +1949,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFB4C7DC"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="25.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
+      <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1003" type="list">
+      <formula1>ListReducers!$A$2:$A$1048576</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
@@ -1897,63 +2045,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>203</v>
+      <c r="B1" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>210</v>
       </c>
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="23" t="n">
+      <c r="A2" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="38" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="30" t="n">
+      <c r="A3" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="37" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="38" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1978,134 +2126,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="30" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="7" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="27" t="n">
-        <v>44881.5</v>
-      </c>
-      <c r="C2" s="27" t="n">
-        <v>44882.5034722222</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="27" t="n">
-        <v>44887.5</v>
-      </c>
-      <c r="C3" s="27" t="n">
-        <v>44888.5034722222</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="27" t="n">
-        <v>44907.5</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>44908.5034722222</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1004" type="list">
-      <formula1>ListTrajectories!$A$2:$A$1048576</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
+    <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
@@ -2120,88 +2144,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="44" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="45" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="45" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="46" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="46" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2219,7 +2243,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
+    <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
@@ -2234,85 +2258,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="44" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="45" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="45" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="45" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="38"/>
+      <c r="B10" s="46"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2328,7 +2352,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
+    <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
@@ -2343,23 +2367,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>204</v>
+      <c r="A2" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>205</v>
+      <c r="A3" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2400,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
+    <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
@@ -2387,27 +2411,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>210</v>
+      <c r="A2" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="15" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="15" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2425,7 +2449,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFEEEEEE"/>
+    <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A5"/>
@@ -2440,32 +2464,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>199</v>
+      <c r="A2" s="15" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="15" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="15" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2483,7 +2507,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
@@ -2504,80 +2528,80 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="19" t="n">
         <v>44100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="21" t="n">
         <v>44197</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="23" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="23" t="n">
         <v>42000</v>
       </c>
     </row>
@@ -2598,7 +2622,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S55"/>
@@ -2613,3257 +2637,3257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="63.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="22.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="23" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="24" width="15.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="20" style="24" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="56.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="63.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="27" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="28" width="15.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="20" style="28" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1009" min="35" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="31" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="n">
+      <c r="G2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="23" t="n">
+      <c r="H2" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="24" t="n">
+      <c r="L2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P2" s="24" t="n">
+      <c r="P2" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q2" s="24" t="n">
+      <c r="Q2" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R2" s="24" t="n">
+      <c r="R2" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="31" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" s="24" t="n">
+      <c r="M3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P3" s="24" t="n">
+      <c r="P3" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q3" s="24" t="n">
+      <c r="Q3" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R3" s="24" t="n">
+      <c r="R3" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="31" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="24" t="n">
+      <c r="M4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P4" s="24" t="n">
+      <c r="P4" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q4" s="24" t="n">
+      <c r="Q4" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R4" s="24" t="n">
+      <c r="R4" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="32" t="n">
         <v>44887.5</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="23" t="n">
+      <c r="F5" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="24" t="n">
+      <c r="M5" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P5" s="24" t="n">
+      <c r="P5" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q5" s="24" t="n">
+      <c r="Q5" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R5" s="24" t="n">
+      <c r="R5" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="32" t="n">
         <v>44887.5069444444</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F6" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="23" t="n">
+      <c r="F6" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="24" t="n">
+      <c r="M6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P6" s="24" t="n">
+      <c r="P6" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q6" s="24" t="n">
+      <c r="Q6" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R6" s="24" t="n">
+      <c r="R6" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="32" t="n">
         <v>44887.5138888889</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F7" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="23" t="n">
+      <c r="F7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="24" t="n">
+      <c r="M7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P7" s="24" t="n">
+      <c r="P7" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q7" s="24" t="n">
+      <c r="Q7" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R7" s="24" t="n">
+      <c r="R7" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="G8" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="24" t="n">
+      <c r="M8" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P8" s="24" t="n">
+      <c r="P8" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q8" s="24" t="n">
+      <c r="Q8" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R8" s="24" t="n">
+      <c r="R8" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="24" t="n">
+      <c r="M9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P9" s="24" t="n">
+      <c r="P9" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q9" s="24" t="n">
+      <c r="Q9" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R9" s="24" t="n">
+      <c r="R9" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="24" t="n">
+      <c r="M10" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P10" s="24" t="n">
+      <c r="P10" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q10" s="24" t="n">
+      <c r="Q10" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R10" s="24" t="n">
+      <c r="R10" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="32" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="24" t="n">
+      <c r="L11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P11" s="24" t="n">
+      <c r="P11" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q11" s="24" t="n">
+      <c r="Q11" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R11" s="24" t="n">
+      <c r="R11" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="32" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="24" t="n">
+      <c r="L12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P12" s="24" t="n">
+      <c r="P12" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q12" s="24" t="n">
+      <c r="Q12" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R12" s="24" t="n">
+      <c r="R12" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="32" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="24" t="n">
+      <c r="L13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P13" s="24" t="n">
+      <c r="P13" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q13" s="24" t="n">
+      <c r="Q13" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R13" s="24" t="n">
+      <c r="R13" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F14" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="F14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="24" t="n">
+      <c r="L14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P14" s="24" t="n">
+      <c r="P14" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q14" s="24" t="n">
+      <c r="Q14" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R14" s="24" t="n">
+      <c r="R14" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="23" t="n">
+      <c r="E15" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F15" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="23" t="s">
+      <c r="F15" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="24" t="n">
+      <c r="L15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P15" s="24" t="n">
+      <c r="P15" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q15" s="24" t="n">
+      <c r="Q15" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R15" s="24" t="n">
+      <c r="R15" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="23" t="n">
+      <c r="E16" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F16" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="F16" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="24" t="n">
+      <c r="L16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P16" s="24" t="n">
+      <c r="P16" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q16" s="24" t="n">
+      <c r="Q16" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R16" s="24" t="n">
+      <c r="R16" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="32" t="n">
         <v>44907.5</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="H17" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="24" t="n">
+      <c r="L17" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P17" s="24" t="n">
+      <c r="P17" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q17" s="24" t="n">
+      <c r="Q17" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R17" s="24" t="n">
+      <c r="R17" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="32" t="n">
         <v>44907.5069444444</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="23" t="n">
+      <c r="E18" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="23" t="s">
+      <c r="H18" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="24" t="n">
+      <c r="L18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P18" s="24" t="n">
+      <c r="P18" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q18" s="24" t="n">
+      <c r="Q18" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R18" s="24" t="n">
+      <c r="R18" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="32" t="n">
         <v>44907.5138888889</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="23" t="n">
+      <c r="E19" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="23" t="s">
+      <c r="H19" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="24" t="n">
+      <c r="L19" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P19" s="24" t="n">
+      <c r="P19" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q19" s="24" t="n">
+      <c r="Q19" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R19" s="24" t="n">
+      <c r="R19" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="32" t="n">
         <v>44881.5</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="23" t="n">
+      <c r="E20" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="23" t="s">
+      <c r="H20" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="24" t="n">
+      <c r="L20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P20" s="24" t="n">
+      <c r="P20" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q20" s="24" t="n">
+      <c r="Q20" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R20" s="24" t="n">
+      <c r="R20" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="C21" s="32" t="n">
         <v>44881.5069444444</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="23" t="n">
+      <c r="E21" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="23" t="s">
+      <c r="H21" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="24" t="n">
+      <c r="L21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P21" s="24" t="n">
+      <c r="P21" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q21" s="24" t="n">
+      <c r="Q21" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R21" s="24" t="n">
+      <c r="R21" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="C22" s="32" t="n">
         <v>44881.5138888889</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="23" t="n">
+      <c r="E22" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="24" t="n">
+      <c r="L22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P22" s="24" t="n">
+      <c r="P22" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q22" s="24" t="n">
+      <c r="Q22" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R22" s="24" t="n">
+      <c r="R22" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="C23" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="23" t="n">
+      <c r="E23" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F23" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="23" t="s">
+      <c r="F23" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="24" t="n">
+      <c r="L23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P23" s="24" t="n">
+      <c r="P23" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q23" s="24" t="n">
+      <c r="Q23" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R23" s="24" t="n">
+      <c r="R23" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="28" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="23" t="n">
+      <c r="E24" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="23" t="s">
+      <c r="F24" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="24" t="n">
+      <c r="L24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P24" s="24" t="n">
+      <c r="P24" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q24" s="24" t="n">
+      <c r="Q24" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R24" s="24" t="n">
+      <c r="R24" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="28" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="C25" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="23" t="n">
+      <c r="E25" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O25" s="24" t="n">
+      <c r="L25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P25" s="24" t="n">
+      <c r="P25" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q25" s="24" t="n">
+      <c r="Q25" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R25" s="24" t="n">
+      <c r="R25" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S25" s="24" t="s">
+      <c r="S25" s="28" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="28" t="n">
+      <c r="C26" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="23" t="n">
+      <c r="E26" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="23" t="s">
+      <c r="H26" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O26" s="24" t="n">
+      <c r="L26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P26" s="24" t="n">
+      <c r="P26" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q26" s="24" t="n">
+      <c r="Q26" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R26" s="24" t="n">
+      <c r="R26" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S26" s="24" t="s">
+      <c r="S26" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="C27" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="23" t="n">
+      <c r="E27" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="23" t="n">
+      <c r="G27" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="23" t="s">
+      <c r="H27" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="24" t="n">
+      <c r="L27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P27" s="24" t="n">
+      <c r="P27" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q27" s="24" t="n">
+      <c r="Q27" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R27" s="24" t="n">
+      <c r="R27" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S27" s="24" t="s">
+      <c r="S27" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="28" t="n">
+      <c r="C28" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="23" t="n">
+      <c r="E28" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="23" t="n">
+      <c r="G28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" s="23" t="s">
+      <c r="H28" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" s="24" t="n">
+      <c r="L28" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P28" s="24" t="n">
+      <c r="P28" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q28" s="24" t="n">
+      <c r="Q28" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R28" s="24" t="n">
+      <c r="R28" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S28" s="24" t="s">
+      <c r="S28" s="28" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="28" t="n">
+      <c r="C29" s="32" t="n">
         <v>44243.5013888889</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="23" t="n">
+      <c r="E29" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="23" t="n">
+      <c r="G29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="23" t="s">
+      <c r="H29" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O29" s="24" t="n">
+      <c r="L29" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="28" t="n">
         <v>384</v>
       </c>
-      <c r="P29" s="24" t="n">
+      <c r="P29" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="Q29" s="24" t="n">
+      <c r="Q29" s="28" t="n">
         <v>367</v>
       </c>
-      <c r="R29" s="24" t="n">
+      <c r="R29" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="S29" s="24" t="s">
+      <c r="S29" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="28" t="n">
+      <c r="C30" s="32" t="n">
         <v>44243.5090277778</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="23" t="n">
+      <c r="E30" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="23" t="n">
+      <c r="G30" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" s="23" t="s">
+      <c r="H30" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O30" s="24" t="n">
+      <c r="L30" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="28" t="n">
         <v>384</v>
       </c>
-      <c r="P30" s="24" t="n">
+      <c r="P30" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="Q30" s="24" t="n">
+      <c r="Q30" s="28" t="n">
         <v>367</v>
       </c>
-      <c r="R30" s="24" t="n">
+      <c r="R30" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="S30" s="24" t="s">
+      <c r="S30" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="28" t="n">
+      <c r="C31" s="32" t="n">
         <v>44243.5166666667</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="23" t="n">
+      <c r="E31" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="23" t="n">
+      <c r="G31" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="23" t="s">
+      <c r="H31" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O31" s="24" t="n">
+      <c r="L31" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O31" s="28" t="n">
         <v>384</v>
       </c>
-      <c r="P31" s="24" t="n">
+      <c r="P31" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="Q31" s="24" t="n">
+      <c r="Q31" s="28" t="n">
         <v>367</v>
       </c>
-      <c r="R31" s="24" t="n">
+      <c r="R31" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="S31" s="24" t="s">
+      <c r="S31" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="28" t="n">
+      <c r="C32" s="32" t="n">
         <v>44273.5034722222</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="23" t="n">
+      <c r="E32" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F32" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="23" t="s">
+      <c r="F32" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O32" s="24" t="n">
+      <c r="L32" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O32" s="28" t="n">
         <v>697</v>
       </c>
-      <c r="P32" s="24" t="n">
+      <c r="P32" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="Q32" s="24" t="n">
+      <c r="Q32" s="28" t="n">
         <v>656</v>
       </c>
-      <c r="R32" s="24" t="n">
+      <c r="R32" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="S32" s="24" t="s">
+      <c r="S32" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C33" s="32" t="n">
         <v>44273.5111111111</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="23" t="n">
+      <c r="E33" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F33" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" s="23" t="s">
+      <c r="F33" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33" s="24" t="n">
+      <c r="L33" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="28" t="n">
         <v>697</v>
       </c>
-      <c r="P33" s="24" t="n">
+      <c r="P33" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="Q33" s="24" t="n">
+      <c r="Q33" s="28" t="n">
         <v>656</v>
       </c>
-      <c r="R33" s="24" t="n">
+      <c r="R33" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="S33" s="24" t="s">
+      <c r="S33" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="28" t="n">
+      <c r="C34" s="32" t="n">
         <v>44273.51875</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="23" t="n">
+      <c r="E34" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F34" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="23" t="s">
+      <c r="F34" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="24" t="n">
+      <c r="L34" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="28" t="n">
         <v>697</v>
       </c>
-      <c r="P34" s="24" t="n">
+      <c r="P34" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="Q34" s="24" t="n">
+      <c r="Q34" s="28" t="n">
         <v>656</v>
       </c>
-      <c r="R34" s="24" t="n">
+      <c r="R34" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="S34" s="24" t="s">
+      <c r="S34" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="28" t="n">
+      <c r="C35" s="32" t="n">
         <v>44300.5034722222</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="23" t="n">
+      <c r="E35" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F35" s="23" t="n">
+      <c r="F35" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="23" t="n">
+      <c r="G35" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="23" t="s">
+      <c r="H35" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" s="24" t="n">
+      <c r="L35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O35" s="28" t="n">
         <v>1794</v>
       </c>
-      <c r="P35" s="24" t="n">
+      <c r="P35" s="28" t="n">
         <v>194</v>
       </c>
-      <c r="Q35" s="24" t="n">
+      <c r="Q35" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="R35" s="24" t="n">
+      <c r="R35" s="28" t="n">
         <v>146</v>
       </c>
-      <c r="S35" s="24" t="s">
+      <c r="S35" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="28" t="n">
+      <c r="C36" s="32" t="n">
         <v>44300.5111111111</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="23" t="n">
+      <c r="E36" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G36" s="23" t="n">
+      <c r="G36" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="23" t="s">
+      <c r="H36" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" s="24" t="n">
+      <c r="L36" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O36" s="28" t="n">
         <v>1794</v>
       </c>
-      <c r="P36" s="24" t="n">
+      <c r="P36" s="28" t="n">
         <v>194</v>
       </c>
-      <c r="Q36" s="24" t="n">
+      <c r="Q36" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="R36" s="24" t="n">
+      <c r="R36" s="28" t="n">
         <v>146</v>
       </c>
-      <c r="S36" s="24" t="s">
+      <c r="S36" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="28" t="n">
+      <c r="C37" s="32" t="n">
         <v>44300.51875</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="23" t="n">
+      <c r="E37" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="23" t="n">
+      <c r="G37" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="23" t="s">
+      <c r="H37" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L37" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O37" s="24" t="n">
+      <c r="L37" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="28" t="n">
         <v>1794</v>
       </c>
-      <c r="P37" s="24" t="n">
+      <c r="P37" s="28" t="n">
         <v>194</v>
       </c>
-      <c r="Q37" s="24" t="n">
+      <c r="Q37" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="R37" s="24" t="n">
+      <c r="R37" s="28" t="n">
         <v>146</v>
       </c>
-      <c r="S37" s="24" t="s">
+      <c r="S37" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="28" t="n">
+      <c r="C38" s="32" t="n">
         <v>44245.5041666667</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="23" t="n">
+      <c r="E38" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F38" s="23" t="n">
+      <c r="F38" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="23" t="n">
+      <c r="G38" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="23" t="n">
+      <c r="H38" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N38" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38" s="24" t="n">
+      <c r="L38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="P38" s="24" t="n">
+      <c r="P38" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="Q38" s="24" t="n">
+      <c r="Q38" s="28" t="n">
         <v>347</v>
       </c>
-      <c r="R38" s="24" t="n">
+      <c r="R38" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="S38" s="24" t="s">
+      <c r="S38" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="28" t="n">
+      <c r="C39" s="32" t="n">
         <v>44245.5118055556</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="23" t="n">
+      <c r="E39" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F39" s="23" t="n">
+      <c r="F39" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="23" t="n">
+      <c r="G39" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="23" t="n">
+      <c r="H39" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="24" t="n">
+      <c r="L39" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="P39" s="24" t="n">
+      <c r="P39" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="Q39" s="24" t="n">
+      <c r="Q39" s="28" t="n">
         <v>347</v>
       </c>
-      <c r="R39" s="24" t="n">
+      <c r="R39" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="S39" s="24" t="s">
+      <c r="S39" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="28" t="n">
+      <c r="C40" s="32" t="n">
         <v>44245.5194444444</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="23" t="n">
+      <c r="E40" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F40" s="23" t="n">
+      <c r="F40" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="23" t="n">
+      <c r="G40" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="23" t="n">
+      <c r="H40" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40" s="24" t="n">
+      <c r="L40" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O40" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="P40" s="24" t="n">
+      <c r="P40" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="Q40" s="24" t="n">
+      <c r="Q40" s="28" t="n">
         <v>347</v>
       </c>
-      <c r="R40" s="24" t="n">
+      <c r="R40" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="S40" s="24" t="s">
+      <c r="S40" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="28" t="n">
+      <c r="C41" s="32" t="n">
         <v>44271.5027777778</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="23" t="n">
+      <c r="E41" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F41" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="23" t="n">
+      <c r="F41" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="24" t="n">
+      <c r="M41" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O41" s="28" t="n">
         <v>497</v>
       </c>
-      <c r="P41" s="24" t="n">
+      <c r="P41" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="Q41" s="24" t="n">
+      <c r="Q41" s="28" t="n">
         <v>483</v>
       </c>
-      <c r="R41" s="24" t="n">
+      <c r="R41" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="S41" s="24" t="s">
+      <c r="S41" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="28" t="n">
+      <c r="C42" s="32" t="n">
         <v>44271.5104166667</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="23" t="n">
+      <c r="E42" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F42" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="23" t="n">
+      <c r="F42" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L42" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O42" s="24" t="n">
+      <c r="L42" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O42" s="28" t="n">
         <v>497</v>
       </c>
-      <c r="P42" s="24" t="n">
+      <c r="P42" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="Q42" s="24" t="n">
+      <c r="Q42" s="28" t="n">
         <v>483</v>
       </c>
-      <c r="R42" s="24" t="n">
+      <c r="R42" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="S42" s="24" t="s">
+      <c r="S42" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="28" t="n">
+      <c r="C43" s="32" t="n">
         <v>44271.5180555556</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="23" t="n">
+      <c r="E43" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F43" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="23" t="n">
+      <c r="F43" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O43" s="24" t="n">
+      <c r="L43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O43" s="28" t="n">
         <v>497</v>
       </c>
-      <c r="P43" s="24" t="n">
+      <c r="P43" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="Q43" s="24" t="n">
+      <c r="Q43" s="28" t="n">
         <v>483</v>
       </c>
-      <c r="R43" s="24" t="n">
+      <c r="R43" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="S43" s="24" t="s">
+      <c r="S43" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="28" t="n">
+      <c r="C44" s="32" t="n">
         <v>44305.5027777778</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="23" t="n">
+      <c r="E44" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="23" t="n">
+      <c r="G44" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H44" s="23" t="n">
+      <c r="H44" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O44" s="24" t="n">
+      <c r="L44" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O44" s="28" t="n">
         <v>1178</v>
       </c>
-      <c r="P44" s="24" t="n">
+      <c r="P44" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="Q44" s="24" t="n">
+      <c r="Q44" s="28" t="n">
         <v>1092</v>
       </c>
-      <c r="R44" s="24" t="n">
+      <c r="R44" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="S44" s="24" t="s">
+      <c r="S44" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="28" t="n">
+      <c r="C45" s="32" t="n">
         <v>44305.5104166667</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="23" t="n">
+      <c r="G45" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H45" s="23" t="n">
+      <c r="H45" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M45" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O45" s="24" t="n">
+      <c r="M45" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O45" s="28" t="n">
         <v>1178</v>
       </c>
-      <c r="P45" s="24" t="n">
+      <c r="P45" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="Q45" s="24" t="n">
+      <c r="Q45" s="28" t="n">
         <v>1092</v>
       </c>
-      <c r="R45" s="24" t="n">
+      <c r="R45" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="S45" s="24" t="s">
+      <c r="S45" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="28" t="n">
+      <c r="C46" s="32" t="n">
         <v>44305.5180555556</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="23" t="n">
+      <c r="E46" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G46" s="23" t="n">
+      <c r="G46" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H46" s="23" t="n">
+      <c r="H46" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N46" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O46" s="24" t="n">
+      <c r="L46" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O46" s="28" t="n">
         <v>1178</v>
       </c>
-      <c r="P46" s="24" t="n">
+      <c r="P46" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="Q46" s="24" t="n">
+      <c r="Q46" s="28" t="n">
         <v>1092</v>
       </c>
-      <c r="R46" s="24" t="n">
+      <c r="R46" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="S46" s="24" t="s">
+      <c r="S46" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="28" t="n">
+      <c r="C47" s="32" t="n">
         <v>44243.5055555556</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="23" t="n">
+      <c r="E47" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F47" s="23" t="n">
+      <c r="F47" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="23" t="n">
+      <c r="G47" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H47" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" s="23" t="s">
+      <c r="H47" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L47" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M47" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N47" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="24" t="n">
+      <c r="L47" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O47" s="28" t="n">
         <v>387</v>
       </c>
-      <c r="P47" s="24" t="n">
+      <c r="P47" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="Q47" s="24" t="n">
+      <c r="Q47" s="28" t="n">
         <v>369</v>
       </c>
-      <c r="R47" s="24" t="n">
+      <c r="R47" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="S47" s="24" t="s">
+      <c r="S47" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="28" t="n">
+      <c r="C48" s="32" t="n">
         <v>44243.5131944445</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="23" t="n">
+      <c r="E48" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F48" s="23" t="n">
+      <c r="F48" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="23" t="n">
+      <c r="G48" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" s="23" t="s">
+      <c r="H48" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="J48" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L48" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M48" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N48" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O48" s="24" t="n">
+      <c r="L48" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O48" s="28" t="n">
         <v>387</v>
       </c>
-      <c r="P48" s="24" t="n">
+      <c r="P48" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="Q48" s="24" t="n">
+      <c r="Q48" s="28" t="n">
         <v>369</v>
       </c>
-      <c r="R48" s="24" t="n">
+      <c r="R48" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="S48" s="24" t="s">
+      <c r="S48" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="28" t="n">
+      <c r="C49" s="32" t="n">
         <v>44243.5208333333</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="23" t="n">
+      <c r="E49" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="23" t="n">
+      <c r="G49" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="23" t="s">
+      <c r="H49" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L49" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N49" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O49" s="24" t="n">
+      <c r="L49" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O49" s="28" t="n">
         <v>387</v>
       </c>
-      <c r="P49" s="24" t="n">
+      <c r="P49" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="Q49" s="24" t="n">
+      <c r="Q49" s="28" t="n">
         <v>369</v>
       </c>
-      <c r="R49" s="24" t="n">
+      <c r="R49" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="S49" s="24" t="s">
+      <c r="S49" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="28" t="n">
+      <c r="C50" s="32" t="n">
         <v>44273.5</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="23" t="n">
+      <c r="E50" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F50" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="23" t="s">
+      <c r="F50" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L50" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M50" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O50" s="24" t="n">
+      <c r="L50" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O50" s="28" t="n">
         <v>680</v>
       </c>
-      <c r="P50" s="24" t="n">
+      <c r="P50" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="Q50" s="24" t="n">
+      <c r="Q50" s="28" t="n">
         <v>606</v>
       </c>
-      <c r="R50" s="24" t="n">
+      <c r="R50" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="S50" s="24" t="s">
+      <c r="S50" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="28" t="n">
+      <c r="C51" s="32" t="n">
         <v>44273.5076388889</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="23" t="n">
+      <c r="E51" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F51" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" s="23" t="s">
+      <c r="F51" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K51" s="24" t="s">
+      <c r="K51" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M51" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N51" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O51" s="24" t="n">
+      <c r="L51" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O51" s="28" t="n">
         <v>680</v>
       </c>
-      <c r="P51" s="24" t="n">
+      <c r="P51" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="Q51" s="24" t="n">
+      <c r="Q51" s="28" t="n">
         <v>606</v>
       </c>
-      <c r="R51" s="24" t="n">
+      <c r="R51" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="S51" s="24" t="s">
+      <c r="S51" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="28" t="n">
+      <c r="C52" s="32" t="n">
         <v>44273.5152777778</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="23" t="n">
+      <c r="E52" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F52" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" s="23" t="s">
+      <c r="F52" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L52" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O52" s="24" t="n">
+      <c r="L52" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O52" s="28" t="n">
         <v>680</v>
       </c>
-      <c r="P52" s="24" t="n">
+      <c r="P52" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="Q52" s="24" t="n">
+      <c r="Q52" s="28" t="n">
         <v>606</v>
       </c>
-      <c r="R52" s="24" t="n">
+      <c r="R52" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="S52" s="24" t="s">
+      <c r="S52" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="28" t="n">
+      <c r="C53" s="32" t="n">
         <v>44299.5069444445</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="23" t="n">
+      <c r="E53" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="23" t="n">
+      <c r="G53" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H53" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" s="23" t="s">
+      <c r="H53" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K53" s="24" t="s">
+      <c r="K53" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L53" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N53" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O53" s="24" t="n">
+      <c r="L53" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O53" s="28" t="n">
         <v>1258</v>
       </c>
-      <c r="P53" s="24" t="n">
+      <c r="P53" s="28" t="n">
         <v>103</v>
       </c>
-      <c r="Q53" s="24" t="n">
+      <c r="Q53" s="28" t="n">
         <v>1175</v>
       </c>
-      <c r="R53" s="24" t="n">
+      <c r="R53" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="S53" s="24" t="s">
+      <c r="S53" s="28" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="28" t="n">
+      <c r="C54" s="32" t="n">
         <v>44299.5145833333</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="23" t="n">
+      <c r="E54" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F54" s="23" t="n">
+      <c r="F54" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="23" t="n">
+      <c r="G54" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H54" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" s="23" t="s">
+      <c r="H54" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K54" s="24" t="s">
+      <c r="K54" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L54" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N54" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O54" s="24" t="n">
+      <c r="L54" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O54" s="28" t="n">
         <v>1258</v>
       </c>
-      <c r="P54" s="24" t="n">
+      <c r="P54" s="28" t="n">
         <v>103</v>
       </c>
-      <c r="Q54" s="24" t="n">
+      <c r="Q54" s="28" t="n">
         <v>1175</v>
       </c>
-      <c r="R54" s="24" t="n">
+      <c r="R54" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="S54" s="24" t="s">
+      <c r="S54" s="28" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="28" t="n">
+      <c r="C55" s="32" t="n">
         <v>44299.5222222222</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="23" t="n">
+      <c r="E55" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="23" t="n">
+      <c r="G55" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H55" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" s="23" t="s">
+      <c r="H55" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="J55" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L55" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="N55" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O55" s="24" t="n">
+      <c r="L55" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="O55" s="28" t="n">
         <v>1258</v>
       </c>
-      <c r="P55" s="24" t="n">
+      <c r="P55" s="28" t="n">
         <v>103</v>
       </c>
-      <c r="Q55" s="24" t="n">
+      <c r="Q55" s="28" t="n">
         <v>1175</v>
       </c>
-      <c r="R55" s="24" t="n">
+      <c r="R55" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="S55" s="24" t="s">
+      <c r="S55" s="28" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5881,7 +5905,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
@@ -5896,44 +5920,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="30" t="n">
+      <c r="B2" s="34" t="n">
         <v>70</v>
       </c>
-      <c r="C2" s="30" t="n">
+      <c r="C2" s="34" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5949,7 +5973,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
@@ -5964,35 +5988,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="18.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="30" t="n">
+      <c r="B2" s="34" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23"/>
+      <c r="B6" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6008,7 +6032,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
@@ -6023,63 +6047,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="30" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="20.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="31" t="n">
         <v>44562.5</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="31" t="n">
         <v>44926.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="27" t="n">
+      <c r="B3" s="31" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="31" t="n">
         <v>44882.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="28" t="n">
+      <c r="B4" s="32" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="31" t="n">
         <v>44888.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="28" t="n">
+      <c r="B5" s="32" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="32" t="n">
         <v>44908.5</v>
       </c>
     </row>
@@ -6097,7 +6121,131 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFFFFFA6"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="34" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="7" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="31" t="n">
+        <v>44881.5</v>
+      </c>
+      <c r="C2" s="31" t="n">
+        <v>44882.5034722222</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="31" t="n">
+        <v>44887.5</v>
+      </c>
+      <c r="C3" s="31" t="n">
+        <v>44888.5034722222</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="31" t="n">
+        <v>44907.5</v>
+      </c>
+      <c r="C4" s="31" t="n">
+        <v>44908.5034722222</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1004" type="list">
+      <formula1>ListTrajectories!$A$2:$A$1048576</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
@@ -6108,68 +6256,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="30" t="n">
+      <c r="A2" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="38" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>192</v>
+      <c r="D2" s="38" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="30" t="n">
+      <c r="A3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="38" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>194</v>
+      <c r="D3" s="38" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="30" t="n">
+      <c r="A4" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="38" t="n">
         <v>1000</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>194</v>
+      <c r="D4" s="38" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6190,10 +6338,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
+    <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A4"/>
@@ -6204,28 +6352,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="15.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>196</v>
+      <c r="A2" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>197</v>
+      <c r="A3" s="36" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>198</v>
+      <c r="A4" s="36" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6247,85 +6395,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFD7"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="25.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
-      <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1003" type="list">
-      <formula1>ListReducers!$A$2:$A$1048576</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>